--- a/Data binding/Login Data.xlsx
+++ b/Data binding/Login Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damar\Documents\SKRIPSI\YukJahit\yuk-jahit-Katalon\Data binding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5C271E-B342-4B8A-AFD1-6698FEEE06D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5DCFC3-9480-4F14-B56E-1A7AFEB23D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2835" windowWidth="21600" windowHeight="11835" xr2:uid="{568FDC28-8866-425B-93E6-9CFC4B66C276}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11835" xr2:uid="{568FDC28-8866-425B-93E6-9CFC4B66C276}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,25 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
-    <t>user1234</t>
-  </si>
-  <si>
-    <t>user2345</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
-    <t>unregistereduser@gmail.com</t>
-  </si>
-  <si>
     <t>failed</t>
   </si>
   <si>
     <t>nothing</t>
+  </si>
+  <si>
+    <t>yukjahit@email.com</t>
+  </si>
+  <si>
+    <t>yukjahit@wrongemail.com</t>
+  </si>
+  <si>
+    <t>yukjahit123</t>
+  </si>
+  <si>
+    <t>yukjahit2345</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,24 +443,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,31 +468,31 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
